--- a/examples/sensitivity/data/data.xlsx
+++ b/examples/sensitivity/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6BDEF4-6481-43E6-A41F-7EC761A5C1CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43008D3B-12D9-4059-90B9-34CBC50B932E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="249">
   <si>
     <t>connection</t>
   </si>
@@ -781,6 +781,9 @@
   </si>
   <si>
     <t>LastBuild</t>
+  </si>
+  <si>
+    <t>Ref_DiscountRate</t>
   </si>
 </sst>
 </file>
@@ -1466,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1486,7 +1489,7 @@
     <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1532,8 +1535,14 @@
       <c r="O1" s="29" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1579,8 +1588,14 @@
       <c r="O2" s="30" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -1604,7 +1619,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -1630,7 +1645,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -1656,7 +1671,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -1670,7 +1685,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -1690,7 +1705,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -1716,7 +1731,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -1757,7 +1772,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -1771,7 +1786,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -2633,7 +2648,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="C1" sqref="C1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2650,71 +2665,83 @@
     <col min="13" max="13" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>105</v>
       </c>
@@ -2736,7 +2763,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>106</v>
       </c>
@@ -2758,7 +2785,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>107</v>
       </c>
@@ -2780,7 +2807,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>108</v>
       </c>
@@ -2802,7 +2829,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>109</v>
       </c>
@@ -2824,7 +2851,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>110</v>
       </c>
@@ -2846,7 +2873,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>111</v>
       </c>
@@ -2872,7 +2899,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>112</v>
       </c>
@@ -2894,7 +2921,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>113</v>
       </c>
@@ -2916,7 +2943,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>114</v>
       </c>
@@ -2938,7 +2965,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>115</v>
       </c>
@@ -2960,7 +2987,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>116</v>
       </c>
@@ -2992,7 +3019,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>117</v>
       </c>
@@ -3024,7 +3051,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>214</v>
       </c>
@@ -4173,7 +4200,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H1" sqref="H1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7056,10 +7083,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="L1" sqref="L1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7072,11 +7099,12 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="12" max="13" width="13.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7110,23 +7138,29 @@
       <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="P1" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="Q1" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="R1" s="29" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -7160,23 +7194,29 @@
       <c r="K2" t="s">
         <v>71</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" t="s">
         <v>66</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="P2" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="Q2" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="R2" s="30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -7208,17 +7248,17 @@
       <c r="K3" t="s">
         <v>198</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>183</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>196</v>
       </c>
@@ -7246,17 +7286,17 @@
       <c r="K4" t="s">
         <v>198</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>30</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>183</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>201</v>
       </c>
@@ -7288,14 +7328,14 @@
       <c r="K5" t="s">
         <v>198</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>30</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -7327,14 +7367,14 @@
       <c r="K6" t="s">
         <v>198</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>30</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -7347,14 +7387,14 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>30</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -7382,14 +7422,14 @@
       <c r="K8" t="s">
         <v>198</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>30</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>199</v>
       </c>
@@ -7417,14 +7457,14 @@
       <c r="K9" t="s">
         <v>198</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>30</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>204</v>
       </c>
@@ -7446,14 +7486,14 @@
       <c r="H10" t="s">
         <v>245</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>30</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -7475,14 +7515,14 @@
       <c r="H11" t="s">
         <v>245</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>30</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>212</v>
       </c>
@@ -7504,14 +7544,14 @@
       <c r="H12" t="s">
         <v>245</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>30</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -7533,14 +7573,14 @@
       <c r="H13" t="s">
         <v>245</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>30</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -7562,10 +7602,10 @@
       <c r="H14" t="s">
         <v>245</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>30</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>183</v>
       </c>
     </row>
@@ -7683,7 +7723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
@@ -7816,7 +7856,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7902,25 +7942,25 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E12:E13"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>230</v>
       </c>
     </row>

--- a/examples/sensitivity/data/data.xlsx
+++ b/examples/sensitivity/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43008D3B-12D9-4059-90B9-34CBC50B932E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32520121-8255-4768-BD1D-B5AFE4713ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -14,18 +14,20 @@
     <sheet name="Connections" sheetId="1" r:id="rId4"/>
     <sheet name="ConnectionsExisting" sheetId="2" r:id="rId5"/>
     <sheet name="Demand" sheetId="3" r:id="rId6"/>
-    <sheet name="DiscountRateGlobal" sheetId="5" r:id="rId7"/>
-    <sheet name="DiscountRateTech" sheetId="19" r:id="rId8"/>
-    <sheet name="Emission" sheetId="20" r:id="rId9"/>
-    <sheet name="Fuels" sheetId="6" r:id="rId10"/>
-    <sheet name="FuelsExisting" sheetId="7" r:id="rId11"/>
-    <sheet name="PowerPlants" sheetId="8" r:id="rId12"/>
-    <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId13"/>
-    <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId14"/>
-    <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId15"/>
-    <sheet name="PowerPlantsExisting" sheetId="11" r:id="rId16"/>
-    <sheet name="ReserveMargin" sheetId="13" r:id="rId17"/>
-    <sheet name="capacityFactorTOD" sheetId="14" r:id="rId18"/>
+    <sheet name="DemandTOD" sheetId="21" r:id="rId7"/>
+    <sheet name="DiscountRateGlobal" sheetId="5" r:id="rId8"/>
+    <sheet name="DiscountRateTech" sheetId="19" r:id="rId9"/>
+    <sheet name="Emission" sheetId="20" r:id="rId10"/>
+    <sheet name="Fuels" sheetId="6" r:id="rId11"/>
+    <sheet name="FuelsExisting" sheetId="7" r:id="rId12"/>
+    <sheet name="PowerPlants" sheetId="8" r:id="rId13"/>
+    <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId14"/>
+    <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId15"/>
+    <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId16"/>
+    <sheet name="PowerPlantsExisting" sheetId="11" r:id="rId17"/>
+    <sheet name="MinCapacity" sheetId="22" r:id="rId18"/>
+    <sheet name="ReserveMargin" sheetId="13" r:id="rId19"/>
+    <sheet name="capacityFactorTOD" sheetId="14" r:id="rId20"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="253">
   <si>
     <t>connection</t>
   </si>
@@ -784,6 +786,18 @@
   </si>
   <si>
     <t>Ref_DiscountRate</t>
+  </si>
+  <si>
+    <t>[fraction of representativeDay demand]</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>MinCapacity</t>
+  </si>
+  <si>
+    <t>Ref_MinCapacity</t>
   </si>
 </sst>
 </file>
@@ -825,7 +839,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -834,19 +848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,9 +866,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -897,15 +898,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1214,22 +1213,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1257,7 +1256,7 @@
       <c r="A3" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1265,7 +1264,7 @@
       <c r="A4" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1276,7 +1275,7 @@
       <c r="C5" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1295,7 +1294,7 @@
       <c r="C7" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1303,7 +1302,7 @@
       <c r="A8" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1319,7 +1318,7 @@
       <c r="A10" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1341,7 +1340,7 @@
       <c r="A12" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1349,7 +1348,7 @@
       <c r="A13" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1357,7 +1356,7 @@
       <c r="A14" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1373,7 +1372,7 @@
       <c r="A16" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1381,7 +1380,7 @@
       <c r="A17" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1389,7 +1388,7 @@
       <c r="A18" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>218</v>
       </c>
     </row>
@@ -1397,7 +1396,7 @@
       <c r="A19" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1405,7 +1404,7 @@
       <c r="A20" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1413,7 +1412,7 @@
       <c r="A21" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1421,7 +1420,7 @@
       <c r="A22" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1429,7 +1428,7 @@
       <c r="A23" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1468,11 +1467,66 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F44819-0382-4850-9146-7C529C159FEB}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1487,58 +1541,61 @@
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1552,46 +1609,46 @@
       <c r="C2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1605,19 +1662,28 @@
       <c r="C3">
         <v>2.66</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H3" s="3">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2">
         <v>40</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1629,21 +1695,30 @@
       <c r="C4">
         <v>2.7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H4">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
         <v>90.37</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>40</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1655,21 +1730,30 @@
       <c r="C5">
         <v>2.8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H5">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
         <v>69.34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>40</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1678,12 +1762,24 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2">
         <v>40</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1692,18 +1788,28 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
         <v>39.51</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>40</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1715,21 +1821,30 @@
       <c r="C8">
         <v>3.05</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H8">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
         <v>67.58</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>40</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1741,36 +1856,40 @@
       <c r="C9">
         <v>2.0699999999999998</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>63.3</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>3</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>50.3</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>40</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="M9">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2">
         <v>2021</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <v>2026</v>
       </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1779,12 +1898,24 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
         <v>40</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1806,12 +1937,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1820,27 +1951,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D2" t="s">
@@ -1848,13 +1979,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>1920</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>2015</v>
       </c>
     </row>
@@ -1863,13 +1994,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:J14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1882,60 +2011,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>77</v>
       </c>
       <c r="I2" t="s">
@@ -1946,314 +2075,314 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="21" t="s">
         <v>129</v>
       </c>
       <c r="J14">
@@ -2261,236 +2390,236 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="21" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>129</v>
       </c>
       <c r="J23">
@@ -2498,132 +2627,132 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2643,13 +2772,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:L2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2666,40 +2793,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2710,765 +2837,765 @@
       <c r="B2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
         <v>75.97</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>1.919</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11">
         <v>19.599999999999998</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>2.8380000000000001</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11">
         <v>24.633333333333336</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>0.99299999999999999</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
         <v>30.57</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>0.59699999999999998</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="8"/>
+      <c r="J6" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>34.31</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>0.72199999999999998</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
         <v>45.56</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>1.0289999999999999</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="8"/>
+      <c r="J8" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>3935</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>43</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>0</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="12" t="s">
+      <c r="I9" s="8"/>
+      <c r="J9" s="11" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11">
         <v>425.4</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>2.6309999999999998</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9" t="s">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="10">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="9">
         <v>18.100000000000001</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>0</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="11" t="s">
+      <c r="I11" s="8"/>
+      <c r="J11" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
         <v>13</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="12" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>0</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="12" t="s">
+      <c r="I12" s="8"/>
+      <c r="J12" s="11" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6">
         <v>42</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="12" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="26">
         <v>0</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="12" t="s">
+      <c r="I13" s="26"/>
+      <c r="J13" s="11" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>1284</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>-4</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>32.1</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>-5</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>0</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <v>0</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>3749</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>-4</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>112</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>-5</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>1.67</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <v>-6</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>3644</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>-4</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>33</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>-5</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>1.39</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <v>-6</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>952</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>-4</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="23">
+      <c r="D17" s="24"/>
+      <c r="E17" s="22">
         <v>1</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>-5</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>11.33</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>-6</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="21" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>952</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <v>-4</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="23">
+      <c r="D18" s="24"/>
+      <c r="E18" s="22">
         <v>1</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>-5</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>11.33</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <v>-6</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="21" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>612.6</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="25">
         <v>-4</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="26">
+      <c r="D19" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="25">
         <v>11</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>-5</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>0.83299999999999996</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <v>-6</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <v>188.3</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="22">
         <v>-4</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="23">
+      <c r="D20" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="22">
         <v>12</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>-5</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <v>1.944</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <v>-6</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>1060</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="22">
         <v>-4</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>13</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>-5</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <v>0</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <v>0</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>1494</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>-4</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>42</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>-5</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>0</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>0</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>1284</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>-4</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>32.1</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>-5</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="26">
         <v>0</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="26">
         <v>0</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>3749</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>-4</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>112</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>-5</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="26">
         <v>1.67</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="26">
         <v>-6</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>860.9</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>-4</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="6">
         <v>11</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>-5</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="26">
         <v>0.83299999999999996</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="26">
         <v>-6</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>305.2</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>-4</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="D26" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="6">
         <v>12</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>-5</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="26">
         <v>1.944</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="26">
         <v>-6</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>1060</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>-4</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>13</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>-5</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <v>0</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>0</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>1494</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>-4</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>42</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>-5</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <v>0</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>0</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3476,7 +3603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -3496,696 +3623,696 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>91.4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>34.799999999999997</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="6">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="5">
         <v>75</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>76</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>29.9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="7">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="6">
         <v>50</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>80</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>40</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="7">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="6">
         <v>50</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>89</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>35.299999999999997</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="7">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="6">
         <v>55</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>58</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>34.6</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="6">
         <v>65</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>78.5</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>34.1</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="7">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="6">
         <v>65</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>63</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>36.799999999999997</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="6">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="5">
         <v>100</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>56</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>19</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="6">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="5">
         <v>45</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>93</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>45.5</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="6">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="5">
         <v>55</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>22</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>36.799999999999997</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="6">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="5">
         <v>30</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>31</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>36.799999999999997</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="6">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="5">
         <v>30</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>50</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21">
         <v>85</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21">
         <v>15</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>56</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>25.3</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22">
         <v>45</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>85</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="24">
         <v>38.799999999999997</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22">
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21">
         <v>75</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>87</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="24">
         <v>51.7</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22">
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
         <v>55</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>87</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="24">
         <v>51.7</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22">
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21">
         <v>55</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="23">
         <v>87</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>62.02</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22">
+      <c r="E19" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21">
         <v>55</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>30</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>42.47</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23">
+      <c r="E20" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22">
         <v>55</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>22</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>36.799999999999997</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22">
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21">
         <v>30</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>31</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>36.799999999999997</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22">
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21">
         <v>30</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>50</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="9">
+      <c r="C23" s="5"/>
+      <c r="D23" s="8">
         <v>85</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8">
         <v>15</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>56</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>25.3</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9">
+      <c r="F24" s="5"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8">
         <v>45</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>87</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>54.17</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="6">
+      <c r="E25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="5">
         <v>55</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>30</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>37.6</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9">
+      <c r="E26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8">
         <v>55</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>22</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>36.799999999999997</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9">
+      <c r="F27" s="5"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8">
         <v>30</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>31</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>36.799999999999997</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9">
+      <c r="F28" s="5"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8">
         <v>30</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="8" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4195,13 +4322,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4218,34 +4343,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="3" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4259,7 +4384,7 @@
       <c r="C2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E2" t="s">
@@ -4271,88 +4396,88 @@
       <c r="G2" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>0.01</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0.93</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>0.67</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>0.73</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>0.92</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9">
         <v>102.7</v>
       </c>
@@ -4361,45 +4486,45 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24">
         <v>20</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="24"/>
       <c r="H14">
         <v>2026</v>
       </c>
@@ -4411,148 +4536,148 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="25">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="24">
         <v>290</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
       <c r="J15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="24">
         <v>0.01</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
       <c r="J16" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="24">
         <v>0.93</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="J17" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <v>0.93</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
       <c r="J18" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>1</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
       <c r="J19" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
       <c r="J20" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24">
         <v>705.6</v>
       </c>
-      <c r="G21" s="25"/>
+      <c r="G21" s="24"/>
       <c r="J21" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24">
         <v>71.64</v>
       </c>
-      <c r="G22" s="25"/>
+      <c r="G22" s="24"/>
       <c r="J22" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D24">
@@ -4563,23 +4688,23 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>1</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>133</v>
       </c>
       <c r="F27">
@@ -4587,10 +4712,10 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>71.64</v>
       </c>
     </row>
@@ -4600,13 +4725,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4616,16 +4739,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4633,7 +4756,7 @@
       <c r="A2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>147</v>
       </c>
       <c r="C2" t="s">
@@ -4644,338 +4767,338 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>454</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>2002</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>378</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>1973</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>247.5</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>1997</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>220</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>2009</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>296</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>1975</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>296</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>1976</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>440</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>2008</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>900</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>1971</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>85</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>1960</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>85</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>1962</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>410</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>1969</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>410</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>1972</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>170</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>1959</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>200</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>1964</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>100</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>1965</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>100</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>1966</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>216</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>1967</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>216</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>1968</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>100</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>1953</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>2.4</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>2015</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>507</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>2000</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>22.1</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>2012</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <v>30</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>2015</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>102</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>2012</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4985,7 +5108,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB94AB1C-AA63-4D03-BFF0-AB1AB7BB172A}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -5001,10 +5172,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5026,13 +5197,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3">
+        <v>0.53</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4">
+        <v>0.47</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5043,19 +5275,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5077,13 +5309,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>184</v>
       </c>
       <c r="D3">
@@ -5094,13 +5326,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>185</v>
       </c>
       <c r="D4">
@@ -5111,13 +5343,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>186</v>
       </c>
       <c r="D5">
@@ -5128,13 +5360,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>187</v>
       </c>
       <c r="D6">
@@ -5145,13 +5377,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>188</v>
       </c>
       <c r="D7">
@@ -5162,13 +5394,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>189</v>
       </c>
       <c r="D8">
@@ -5179,13 +5411,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>190</v>
       </c>
       <c r="D9">
@@ -5196,13 +5428,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>191</v>
       </c>
       <c r="D10">
@@ -5213,13 +5445,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>192</v>
       </c>
       <c r="D11">
@@ -5230,13 +5462,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D12">
@@ -5247,13 +5479,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D13">
@@ -5264,13 +5496,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>50</v>
       </c>
       <c r="D14">
@@ -5281,13 +5513,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D15">
@@ -5298,13 +5530,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D16">
@@ -5315,13 +5547,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D17">
@@ -5332,13 +5564,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D18">
@@ -5349,13 +5581,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D19">
@@ -5366,13 +5598,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D20">
@@ -5383,13 +5615,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D21">
@@ -5400,13 +5632,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B22" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D22">
@@ -5417,13 +5649,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B23" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D23">
@@ -5434,13 +5666,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B24" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D24">
@@ -5451,13 +5683,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B25" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D25">
@@ -5468,13 +5700,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B26" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>84</v>
       </c>
       <c r="D26">
@@ -5485,13 +5717,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B27" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>184</v>
       </c>
       <c r="D27">
@@ -5502,13 +5734,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B28" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>185</v>
       </c>
       <c r="D28">
@@ -5519,13 +5751,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B29" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>186</v>
       </c>
       <c r="D29">
@@ -5536,13 +5768,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B30" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>187</v>
       </c>
       <c r="D30">
@@ -5553,13 +5785,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B31" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>188</v>
       </c>
       <c r="D31">
@@ -5570,13 +5802,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B32" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>189</v>
       </c>
       <c r="D32">
@@ -5587,13 +5819,13 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B33" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>190</v>
       </c>
       <c r="D33">
@@ -5604,13 +5836,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B34" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>191</v>
       </c>
       <c r="D34">
@@ -5621,13 +5853,13 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B35" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="20" t="s">
         <v>192</v>
       </c>
       <c r="D35">
@@ -5638,13 +5870,13 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B36" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D36">
@@ -5655,13 +5887,13 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B37" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D37">
@@ -5672,13 +5904,13 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B38" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>50</v>
       </c>
       <c r="D38">
@@ -5689,13 +5921,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B39" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D39">
@@ -5706,13 +5938,13 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B40" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D40">
@@ -5723,13 +5955,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B41" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D41">
@@ -5740,13 +5972,13 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D42">
@@ -5757,13 +5989,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B43" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D43">
@@ -5774,13 +6006,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B44" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D44">
@@ -5791,13 +6023,13 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B45" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D45">
@@ -5808,13 +6040,13 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B46" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D46">
@@ -5825,13 +6057,13 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B47" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D47">
@@ -5842,13 +6074,13 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B48" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D48">
@@ -5859,13 +6091,13 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B49" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D49">
@@ -5876,13 +6108,13 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B50" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="20" t="s">
         <v>84</v>
       </c>
       <c r="D50">
@@ -5893,13 +6125,13 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B51" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="20" t="s">
         <v>184</v>
       </c>
       <c r="D51">
@@ -5910,13 +6142,13 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B52" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="20" t="s">
         <v>185</v>
       </c>
       <c r="D52">
@@ -5927,13 +6159,13 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B53" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="20" t="s">
         <v>186</v>
       </c>
       <c r="D53">
@@ -5944,13 +6176,13 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B54" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="20" t="s">
         <v>187</v>
       </c>
       <c r="D54">
@@ -5961,13 +6193,13 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B55" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="20" t="s">
         <v>188</v>
       </c>
       <c r="D55">
@@ -5978,13 +6210,13 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B56" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="20" t="s">
         <v>189</v>
       </c>
       <c r="D56">
@@ -5995,13 +6227,13 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="20" t="s">
         <v>190</v>
       </c>
       <c r="D57">
@@ -6012,13 +6244,13 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B58" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="20" t="s">
         <v>191</v>
       </c>
       <c r="D58">
@@ -6029,13 +6261,13 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B59" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="20" t="s">
         <v>192</v>
       </c>
       <c r="D59">
@@ -6046,13 +6278,13 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B60" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D60">
@@ -6063,13 +6295,13 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B61" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D61">
@@ -6080,13 +6312,13 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B62" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="20" t="s">
         <v>50</v>
       </c>
       <c r="D62">
@@ -6097,13 +6329,13 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B63" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D63">
@@ -6114,13 +6346,13 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B64" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D64">
@@ -6131,13 +6363,13 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B65" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D65">
@@ -6148,13 +6380,13 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B66" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D66">
@@ -6165,13 +6397,13 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B67" t="s">
         <v>82</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D67">
@@ -6182,13 +6414,13 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B68" t="s">
         <v>82</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D68">
@@ -6199,13 +6431,13 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B69" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D69">
@@ -6216,13 +6448,13 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B70" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D70">
@@ -6233,13 +6465,13 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B71" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D71">
@@ -6250,13 +6482,13 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B72" t="s">
         <v>82</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D72">
@@ -6267,13 +6499,13 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B73" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D73">
@@ -6284,13 +6516,13 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B74" t="s">
         <v>82</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="20" t="s">
         <v>84</v>
       </c>
       <c r="D74">
@@ -6301,13 +6533,13 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B75" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="20" t="s">
         <v>184</v>
       </c>
       <c r="D75">
@@ -6318,13 +6550,13 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B76" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="20" t="s">
         <v>185</v>
       </c>
       <c r="D76">
@@ -6335,13 +6567,13 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B77" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="20" t="s">
         <v>186</v>
       </c>
       <c r="D77">
@@ -6352,13 +6584,13 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B78" t="s">
         <v>83</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="20" t="s">
         <v>187</v>
       </c>
       <c r="D78">
@@ -6369,13 +6601,13 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B79" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="20" t="s">
         <v>188</v>
       </c>
       <c r="D79">
@@ -6386,13 +6618,13 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B80" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="20" t="s">
         <v>189</v>
       </c>
       <c r="D80">
@@ -6403,13 +6635,13 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B81" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="20" t="s">
         <v>190</v>
       </c>
       <c r="D81">
@@ -6420,13 +6652,13 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="20" t="s">
         <v>191</v>
       </c>
       <c r="D82">
@@ -6437,13 +6669,13 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B83" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="20" t="s">
         <v>192</v>
       </c>
       <c r="D83">
@@ -6454,13 +6686,13 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B84" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D84">
@@ -6471,13 +6703,13 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B85" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D85">
@@ -6488,13 +6720,13 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B86" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="20" t="s">
         <v>50</v>
       </c>
       <c r="D86">
@@ -6505,13 +6737,13 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B87" t="s">
         <v>83</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D87">
@@ -6522,13 +6754,13 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B88" t="s">
         <v>83</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D88">
@@ -6539,13 +6771,13 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D89">
@@ -6556,13 +6788,13 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B90" t="s">
         <v>83</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D90">
@@ -6573,13 +6805,13 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B91" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D91">
@@ -6590,13 +6822,13 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B92" t="s">
         <v>83</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D92">
@@ -6607,13 +6839,13 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B93" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D93">
@@ -6624,13 +6856,13 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B94" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D94">
@@ -6641,13 +6873,13 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B95" t="s">
         <v>83</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D95">
@@ -6658,13 +6890,13 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>83</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D96">
@@ -6675,13 +6907,13 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>83</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D97">
@@ -6692,13 +6924,13 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B98" t="s">
         <v>83</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="20" t="s">
         <v>84</v>
       </c>
       <c r="D98">
@@ -6714,365 +6946,225 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3">
-        <v>0.53</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4">
-        <v>0.47</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>184</v>
       </c>
       <c r="B3">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="C3">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>185</v>
       </c>
       <c r="B4">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="C4">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>186</v>
       </c>
       <c r="B5">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="C5">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>187</v>
       </c>
       <c r="B6">
-        <v>3.5700000000000003E-2</v>
-      </c>
-      <c r="C6">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>188</v>
       </c>
       <c r="B7">
-        <v>3.5700000000000003E-2</v>
-      </c>
-      <c r="C7">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>189</v>
       </c>
       <c r="B8">
-        <v>3.6900000000000002E-2</v>
-      </c>
-      <c r="C8">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>190</v>
       </c>
       <c r="B9">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="C9">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>191</v>
       </c>
       <c r="B10">
-        <v>3.85E-2</v>
-      </c>
-      <c r="C10">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>192</v>
       </c>
       <c r="B11">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="C11">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
       <c r="B12">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="C12">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
       <c r="B13">
-        <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="C13">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
       <c r="B14">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="C14">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
       <c r="B15">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="C15">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
       <c r="B16">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="C16">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>53</v>
       </c>
       <c r="B17">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="C17">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>54</v>
       </c>
       <c r="B18">
-        <v>4.3700000000000003E-2</v>
-      </c>
-      <c r="C18">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
       <c r="B19">
-        <v>4.36E-2</v>
-      </c>
-      <c r="C19">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
       <c r="B20">
-        <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="C20">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>57</v>
       </c>
       <c r="B21">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C21">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>58</v>
       </c>
       <c r="B22">
-        <v>4.7E-2</v>
-      </c>
-      <c r="C22">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>59</v>
       </c>
       <c r="B23">
-        <v>4.6399999999999997E-2</v>
-      </c>
-      <c r="C23">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
       <c r="B24">
-        <v>4.58E-2</v>
-      </c>
-      <c r="C24">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>61</v>
       </c>
       <c r="B25">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="C25">
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="3">
-        <v>4.159999999999997E-2</v>
-      </c>
-      <c r="C26" s="3">
-        <f>1-SUM(C3:C25)</f>
+      <c r="B26" s="2">
+        <f>1-SUM(B3:B25)</f>
         <v>4.1658999999999891E-2</v>
       </c>
     </row>
@@ -7083,10 +7175,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7105,58 +7197,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="3" t="s">
         <v>246</v>
       </c>
     </row>
@@ -7176,43 +7268,43 @@
       <c r="E2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -7232,31 +7324,35 @@
       <c r="E3" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0.86</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>2084.1332580463013</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>2</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="N3">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2">
         <v>30</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>2021</v>
       </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7274,27 +7370,31 @@
       <c r="E4" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
         <v>688.39634941329859</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>2</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="N4">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2">
         <v>30</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="Q4">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2">
         <v>2021</v>
       </c>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -7312,28 +7412,33 @@
       <c r="E5" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>323.88212908717634</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="N5">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -7351,28 +7456,33 @@
       <c r="E6" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>539.80354847862725</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>2</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="N6">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2">
         <v>30</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -7387,12 +7497,23 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="N7">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
         <v>30</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -7410,24 +7531,31 @@
       <c r="E8" t="s">
         <v>183</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>4531.3620000000001</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="N8">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
         <v>30</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -7445,24 +7573,31 @@
       <c r="E9" t="s">
         <v>183</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>7746.9369999999999</v>
       </c>
-      <c r="K9" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="N9">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2">
         <v>30</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -7477,21 +7612,29 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>100</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N10">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2">
         <v>30</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -7506,21 +7649,29 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>100</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N11">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2">
         <v>30</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -7535,21 +7686,29 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>100</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N12">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2">
         <v>30</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -7564,21 +7723,29 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>100</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N13">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2">
         <v>30</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -7593,21 +7760,44 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>100</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N14">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2">
         <v>30</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7630,16 +7820,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7734,16 +7924,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7765,7 +7955,7 @@
       <c r="A3">
         <v>2016</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>75.239999999999995</v>
       </c>
       <c r="C3" t="s">
@@ -7779,7 +7969,7 @@
       <c r="A4">
         <v>2021</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>66.999600000000001</v>
       </c>
       <c r="C4" t="s">
@@ -7793,7 +7983,7 @@
       <c r="A5">
         <v>2026</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>66.103200000000001</v>
       </c>
       <c r="C5" t="s">
@@ -7807,7 +7997,7 @@
       <c r="A6">
         <v>2031</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>65.77</v>
       </c>
       <c r="C6" t="s">
@@ -7821,7 +8011,7 @@
       <c r="A7">
         <v>2036</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>65.47</v>
       </c>
       <c r="C7" t="s">
@@ -7835,7 +8025,7 @@
       <c r="A8">
         <v>2041</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>65.41</v>
       </c>
       <c r="C8" t="s">
@@ -7852,6 +8042,574 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4A53B4-3A9F-47A3-9B62-598D4BFD3FBB}">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3">
+        <v>3.9199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5">
+        <v>3.6400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6">
+        <v>3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7">
+        <v>3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8">
+        <v>3.6900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9">
+        <v>3.8600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10">
+        <v>3.85E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11">
+        <v>4.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>4.2099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>4.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17">
+        <v>4.3799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>4.3700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>4.36E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>4.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23">
+        <v>4.6399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <v>4.58E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4.159999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27">
+        <v>3.9199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29">
+        <v>3.6400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30">
+        <v>3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31">
+        <v>3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32">
+        <v>3.6900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33">
+        <v>3.8600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34">
+        <v>3.85E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35">
+        <v>4.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>4.2099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>4.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>4.3799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42">
+        <v>4.3700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43">
+        <v>4.36E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44">
+        <v>4.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47">
+        <v>4.6399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48">
+        <v>4.58E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="2">
+        <v>4.159999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -7866,10 +8624,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7894,7 +8652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE35283-3BE3-4F5A-8433-3D888AE7F852}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -7905,16 +8663,16 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7930,55 +8688,6 @@
       </c>
       <c r="D2" t="s">
         <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F44819-0382-4850-9146-7C529C159FEB}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E2" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/examples/sensitivity/data/data.xlsx
+++ b/examples/sensitivity/data/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32520121-8255-4768-BD1D-B5AFE4713ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD5433F-538E-44E4-BB88-1C160710758C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="253">
   <si>
     <t>connection</t>
   </si>
@@ -1523,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1546,7 +1546,7 @@
     <col min="17" max="17" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1598,8 +1598,14 @@
       <c r="Q1" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1651,8 +1657,14 @@
       <c r="Q2" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -1685,7 +1697,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -1720,7 +1732,7 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -1755,7 +1767,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -1781,7 +1793,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -1811,7 +1823,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -1846,7 +1858,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -1891,7 +1903,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -1917,7 +1929,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -5112,7 +5124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB94AB1C-AA63-4D03-BFF0-AB1AB7BB172A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>

--- a/examples/sensitivity/data/data.xlsx
+++ b/examples/sensitivity/data/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD5433F-538E-44E4-BB88-1C160710758C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDE9C2C-0463-4BA2-BB89-FF36B7FE239C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="254">
   <si>
     <t>connection</t>
   </si>
@@ -798,6 +798,9 @@
   </si>
   <si>
     <t>Ref_MinCapacity</t>
+  </si>
+  <si>
+    <t>CapacityCreditIncr</t>
   </si>
 </sst>
 </file>
@@ -1525,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1658,7 +1661,7 @@
         <v>76</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>76</v>
@@ -2008,9 +2011,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2019,10 +2024,12 @@
     <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2048,13 +2055,16 @@
         <v>181</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
@@ -2080,13 +2090,16 @@
         <v>77</v>
       </c>
       <c r="I2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J2" t="s">
         <v>220</v>
       </c>
-      <c r="J2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>105</v>
       </c>
@@ -2112,7 +2125,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
@@ -2138,7 +2151,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>107</v>
       </c>
@@ -2164,7 +2177,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>108</v>
       </c>
@@ -2190,7 +2203,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>109</v>
       </c>
@@ -2216,7 +2229,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>110</v>
       </c>
@@ -2242,7 +2255,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>111</v>
       </c>
@@ -2268,7 +2281,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>112</v>
       </c>
@@ -2294,7 +2307,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>113</v>
       </c>
@@ -2320,7 +2333,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>114</v>
       </c>
@@ -2346,7 +2359,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>115</v>
       </c>
@@ -2372,7 +2385,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>116</v>
       </c>
@@ -2397,11 +2410,11 @@
       <c r="H14" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="J14">
+      <c r="I14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>117</v>
       </c>
@@ -2427,7 +2440,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>214</v>
       </c>
@@ -2453,7 +2466,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>215</v>
       </c>
@@ -2479,7 +2492,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>217</v>
       </c>
@@ -2505,7 +2518,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>118</v>
       </c>
@@ -2531,7 +2544,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>119</v>
       </c>
@@ -2557,7 +2570,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>120</v>
       </c>
@@ -2583,7 +2596,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>121</v>
       </c>
@@ -2609,7 +2622,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>130</v>
       </c>
@@ -2634,11 +2647,11 @@
       <c r="H23" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="J23">
+      <c r="I23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>131</v>
       </c>
@@ -2664,7 +2677,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>193</v>
       </c>
@@ -2690,7 +2703,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>132</v>
       </c>
@@ -2716,7 +2729,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>133</v>
       </c>
@@ -2742,7 +2755,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>134</v>
       </c>
